--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -534,22 +534,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.355871</v>
+        <v>0.420981</v>
       </c>
       <c r="H2">
-        <v>1.067613</v>
+        <v>1.262943</v>
       </c>
       <c r="I2">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414047</v>
       </c>
       <c r="J2">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414048</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6093430000000001</v>
+        <v>1.937269333333333</v>
       </c>
       <c r="N2">
-        <v>1.828029</v>
+        <v>5.811808</v>
       </c>
       <c r="O2">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="P2">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="Q2">
-        <v>0.216847502753</v>
+        <v>0.815553581216</v>
       </c>
       <c r="R2">
-        <v>1.951627524777</v>
+        <v>7.339982230944</v>
       </c>
       <c r="S2">
-        <v>0.001038463041714594</v>
+        <v>0.003416916759447466</v>
       </c>
       <c r="T2">
-        <v>0.001038463041714594</v>
+        <v>0.003416916759447466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.355871</v>
+        <v>0.420981</v>
       </c>
       <c r="H3">
-        <v>1.067613</v>
+        <v>1.262943</v>
       </c>
       <c r="I3">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414047</v>
       </c>
       <c r="J3">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414048</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.458013666666667</v>
+        <v>0.9034129999999999</v>
       </c>
       <c r="N3">
-        <v>4.374041</v>
+        <v>2.710239</v>
       </c>
       <c r="O3">
-        <v>0.3286033130325902</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="P3">
-        <v>0.3286033130325903</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="Q3">
-        <v>0.5188647815703333</v>
+        <v>0.380319708153</v>
       </c>
       <c r="R3">
-        <v>4.669783034132999</v>
+        <v>3.422877373376999</v>
       </c>
       <c r="S3">
-        <v>0.002484796423603971</v>
+        <v>0.001593421713382159</v>
       </c>
       <c r="T3">
-        <v>0.002484796423603972</v>
+        <v>0.001593421713382159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.355871</v>
+        <v>0.420981</v>
       </c>
       <c r="H4">
-        <v>1.067613</v>
+        <v>1.262943</v>
       </c>
       <c r="I4">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414047</v>
       </c>
       <c r="J4">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414048</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.369645666666667</v>
+        <v>0.4810833333333333</v>
       </c>
       <c r="N4">
-        <v>7.108937</v>
+        <v>1.44325</v>
       </c>
       <c r="O4">
-        <v>0.5340645527419525</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="P4">
-        <v>0.5340645527419526</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="Q4">
-        <v>0.8432881730423333</v>
+        <v>0.20252694275</v>
       </c>
       <c r="R4">
-        <v>7.589593557381</v>
+        <v>1.82274248475</v>
       </c>
       <c r="S4">
-        <v>0.004038430648735562</v>
+        <v>0.000848525125584423</v>
       </c>
       <c r="T4">
-        <v>0.004038430648735563</v>
+        <v>0.0008485251255844231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>17.116757</v>
       </c>
       <c r="I5">
-        <v>0.1212345786268683</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="J5">
-        <v>0.1212345786268683</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6093430000000001</v>
+        <v>1.937269333333333</v>
       </c>
       <c r="N5">
-        <v>1.828029</v>
+        <v>5.811808</v>
       </c>
       <c r="O5">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="P5">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="Q5">
-        <v>3.476658686883667</v>
+        <v>11.05325614073956</v>
       </c>
       <c r="R5">
-        <v>31.289928181953</v>
+        <v>99.479305266656</v>
       </c>
       <c r="S5">
-        <v>0.01664940342475182</v>
+        <v>0.0463097177471111</v>
       </c>
       <c r="T5">
-        <v>0.01664940342475182</v>
+        <v>0.0463097177471111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>17.116757</v>
       </c>
       <c r="I6">
-        <v>0.1212345786268683</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="J6">
-        <v>0.1212345786268683</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.458013666666667</v>
+        <v>0.9034129999999999</v>
       </c>
       <c r="N6">
-        <v>4.374041</v>
+        <v>2.710239</v>
       </c>
       <c r="O6">
-        <v>0.3286033130325902</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="P6">
-        <v>0.3286033130325903</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="Q6">
-        <v>8.318821878337445</v>
+        <v>5.154500263880333</v>
       </c>
       <c r="R6">
-        <v>74.86939690503701</v>
+        <v>46.390502374923</v>
       </c>
       <c r="S6">
-        <v>0.03983808419089899</v>
+        <v>0.02159575868941517</v>
       </c>
       <c r="T6">
-        <v>0.03983808419089899</v>
+        <v>0.02159575868941517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>17.116757</v>
       </c>
       <c r="I7">
-        <v>0.1212345786268683</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="J7">
-        <v>0.1212345786268683</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.369645666666667</v>
+        <v>0.4810833333333333</v>
       </c>
       <c r="N7">
-        <v>7.108937</v>
+        <v>1.44325</v>
       </c>
       <c r="O7">
-        <v>0.5340645527419525</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="P7">
-        <v>0.5340645527419526</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="Q7">
-        <v>13.52021635081211</v>
+        <v>2.744862171138889</v>
       </c>
       <c r="R7">
-        <v>121.681947157309</v>
+        <v>24.70375954025</v>
       </c>
       <c r="S7">
-        <v>0.06474709101121752</v>
+        <v>0.01150012184478876</v>
       </c>
       <c r="T7">
-        <v>0.06474709101121753</v>
+        <v>0.01150012184478876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.004564</v>
+        <v>37.57387866666667</v>
       </c>
       <c r="H8">
-        <v>36.013692</v>
+        <v>112.721636</v>
       </c>
       <c r="I8">
-        <v>0.2550778032554776</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="J8">
-        <v>0.2550778032554776</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6093430000000001</v>
+        <v>1.937269333333333</v>
       </c>
       <c r="N8">
-        <v>1.828029</v>
+        <v>5.811808</v>
       </c>
       <c r="O8">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="P8">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="Q8">
-        <v>7.314897041452001</v>
+        <v>72.79072287532088</v>
       </c>
       <c r="R8">
-        <v>65.83407337306801</v>
+        <v>655.1165058778879</v>
       </c>
       <c r="S8">
-        <v>0.03503037911461601</v>
+        <v>0.3049705704855538</v>
       </c>
       <c r="T8">
-        <v>0.03503037911461601</v>
+        <v>0.3049705704855538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.004564</v>
+        <v>37.57387866666667</v>
       </c>
       <c r="H9">
-        <v>36.013692</v>
+        <v>112.721636</v>
       </c>
       <c r="I9">
-        <v>0.2550778032554776</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="J9">
-        <v>0.2550778032554776</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.458013666666667</v>
+        <v>0.9034129999999999</v>
       </c>
       <c r="N9">
-        <v>4.374041</v>
+        <v>2.710239</v>
       </c>
       <c r="O9">
-        <v>0.3286033130325902</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="P9">
-        <v>0.3286033130325903</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="Q9">
-        <v>17.50281837437467</v>
+        <v>33.94473044788933</v>
       </c>
       <c r="R9">
-        <v>157.525365369372</v>
+        <v>305.5025740310039</v>
       </c>
       <c r="S9">
-        <v>0.08381941123082517</v>
+        <v>0.1422179008635861</v>
       </c>
       <c r="T9">
-        <v>0.08381941123082519</v>
+        <v>0.1422179008635861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.004564</v>
+        <v>37.57387866666667</v>
       </c>
       <c r="H10">
-        <v>36.013692</v>
+        <v>112.721636</v>
       </c>
       <c r="I10">
-        <v>0.2550778032554776</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="J10">
-        <v>0.2550778032554776</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.369645666666667</v>
+        <v>0.4810833333333333</v>
       </c>
       <c r="N10">
-        <v>7.108937</v>
+        <v>1.44325</v>
       </c>
       <c r="O10">
-        <v>0.5340645527419525</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="P10">
-        <v>0.5340645527419526</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="Q10">
-        <v>28.44656306282267</v>
+        <v>18.07616679522222</v>
       </c>
       <c r="R10">
-        <v>256.019067565404</v>
+        <v>162.685501157</v>
       </c>
       <c r="S10">
-        <v>0.1362280129100364</v>
+        <v>0.07573353693949894</v>
       </c>
       <c r="T10">
-        <v>0.1362280129100364</v>
+        <v>0.07573353693949894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.779231</v>
+        <v>1.764088</v>
       </c>
       <c r="H11">
-        <v>5.337693</v>
+        <v>5.292263999999999</v>
       </c>
       <c r="I11">
-        <v>0.03780581576840664</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="J11">
-        <v>0.03780581576840664</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6093430000000001</v>
+        <v>1.937269333333333</v>
       </c>
       <c r="N11">
-        <v>1.828029</v>
+        <v>5.811808</v>
       </c>
       <c r="O11">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="P11">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="Q11">
-        <v>1.084161955233</v>
+        <v>3.417513583701333</v>
       </c>
       <c r="R11">
-        <v>9.757457597097</v>
+        <v>30.757622253312</v>
       </c>
       <c r="S11">
-        <v>0.005191953365609726</v>
+        <v>0.01431832280397491</v>
       </c>
       <c r="T11">
-        <v>0.005191953365609727</v>
+        <v>0.01431832280397491</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.779231</v>
+        <v>1.764088</v>
       </c>
       <c r="H12">
-        <v>5.337693</v>
+        <v>5.292263999999999</v>
       </c>
       <c r="I12">
-        <v>0.03780581576840664</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="J12">
-        <v>0.03780581576840664</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.458013666666667</v>
+        <v>0.9034129999999999</v>
       </c>
       <c r="N12">
-        <v>4.374041</v>
+        <v>2.710239</v>
       </c>
       <c r="O12">
-        <v>0.3286033130325902</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="P12">
-        <v>0.3286033130325903</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="Q12">
-        <v>2.594143114157</v>
+        <v>1.593700032344</v>
       </c>
       <c r="R12">
-        <v>23.347288027413</v>
+        <v>14.343300291096</v>
       </c>
       <c r="S12">
-        <v>0.01242311631339816</v>
+        <v>0.006677109236561522</v>
       </c>
       <c r="T12">
-        <v>0.01242311631339816</v>
+        <v>0.006677109236561522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.779231</v>
+        <v>1.764088</v>
       </c>
       <c r="H13">
-        <v>5.337693</v>
+        <v>5.292263999999999</v>
       </c>
       <c r="I13">
-        <v>0.03780581576840664</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="J13">
-        <v>0.03780581576840664</v>
+        <v>0.02455111030568848</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.369645666666667</v>
+        <v>0.4810833333333333</v>
       </c>
       <c r="N13">
-        <v>7.108937</v>
+        <v>1.44325</v>
       </c>
       <c r="O13">
-        <v>0.5340645527419525</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="P13">
-        <v>0.5340645527419526</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="Q13">
-        <v>4.216147029149</v>
+        <v>0.8486733353333332</v>
       </c>
       <c r="R13">
-        <v>37.945323262341</v>
+        <v>7.638060017999999</v>
       </c>
       <c r="S13">
-        <v>0.02019074608939875</v>
+        <v>0.003555678265152046</v>
       </c>
       <c r="T13">
-        <v>0.02019074608939875</v>
+        <v>0.003555678265152046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.21711066666667</v>
+        <v>26.389162</v>
       </c>
       <c r="H14">
-        <v>81.651332</v>
+        <v>79.167486</v>
       </c>
       <c r="I14">
-        <v>0.5783201122351933</v>
+        <v>0.3672624195259435</v>
       </c>
       <c r="J14">
-        <v>0.5783201122351933</v>
+        <v>0.3672624195259436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6093430000000001</v>
+        <v>1.937269333333333</v>
       </c>
       <c r="N14">
-        <v>1.828029</v>
+        <v>5.811808</v>
       </c>
       <c r="O14">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="P14">
-        <v>0.1373321342254572</v>
+        <v>0.5832046952539398</v>
       </c>
       <c r="Q14">
-        <v>16.58455586495867</v>
+        <v>51.12291427496533</v>
       </c>
       <c r="R14">
-        <v>149.261002784628</v>
+        <v>460.106228474688</v>
       </c>
       <c r="S14">
-        <v>0.07942193527876502</v>
+        <v>0.2141891674578525</v>
       </c>
       <c r="T14">
-        <v>0.07942193527876502</v>
+        <v>0.2141891674578525</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.21711066666667</v>
+        <v>26.389162</v>
       </c>
       <c r="H15">
-        <v>81.651332</v>
+        <v>79.167486</v>
       </c>
       <c r="I15">
-        <v>0.5783201122351933</v>
+        <v>0.3672624195259435</v>
       </c>
       <c r="J15">
-        <v>0.5783201122351933</v>
+        <v>0.3672624195259436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.458013666666667</v>
+        <v>0.9034129999999999</v>
       </c>
       <c r="N15">
-        <v>4.374041</v>
+        <v>2.710239</v>
       </c>
       <c r="O15">
-        <v>0.3286033130325902</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="P15">
-        <v>0.3286033130325903</v>
+        <v>0.2719677095424251</v>
       </c>
       <c r="Q15">
-        <v>39.68291931917911</v>
+        <v>23.840312009906</v>
       </c>
       <c r="R15">
-        <v>357.146273872612</v>
+        <v>214.5628080891539</v>
       </c>
       <c r="S15">
-        <v>0.1900379048738639</v>
+        <v>0.09988351903948006</v>
       </c>
       <c r="T15">
-        <v>0.190037904873864</v>
+        <v>0.09988351903948008</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.21711066666667</v>
+        <v>26.389162</v>
       </c>
       <c r="H16">
-        <v>81.651332</v>
+        <v>79.167486</v>
       </c>
       <c r="I16">
-        <v>0.5783201122351933</v>
+        <v>0.3672624195259435</v>
       </c>
       <c r="J16">
-        <v>0.5783201122351933</v>
+        <v>0.3672624195259436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.369645666666667</v>
+        <v>0.4810833333333333</v>
       </c>
       <c r="N16">
-        <v>7.108937</v>
+        <v>1.44325</v>
       </c>
       <c r="O16">
-        <v>0.5340645527419525</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="P16">
-        <v>0.5340645527419526</v>
+        <v>0.1448275952036352</v>
       </c>
       <c r="Q16">
-        <v>64.49490835045377</v>
+        <v>12.69538601883333</v>
       </c>
       <c r="R16">
-        <v>580.4541751540839</v>
+        <v>114.2584741695</v>
       </c>
       <c r="S16">
-        <v>0.3088602720825643</v>
+        <v>0.05318973302861098</v>
       </c>
       <c r="T16">
-        <v>0.3088602720825644</v>
+        <v>0.05318973302861099</v>
       </c>
     </row>
   </sheetData>
